--- a/data/raw/sws-data.xlsx
+++ b/data/raw/sws-data.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\_c-dev\sws-viz\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802F6822-F463-41D7-B5C6-5074BFCF0969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44551DFE-97A8-4C46-B9CB-1965770E3D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25920" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{18B4DE2D-1E94-4514-9D50-1F875F4ABBC4}"/>
+    <workbookView xWindow="3225" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{18B4DE2D-1E94-4514-9D50-1F875F4ABBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="districts" sheetId="1" r:id="rId1"/>
     <sheet name="pms" sheetId="2" r:id="rId2"/>
     <sheet name="pm_data" sheetId="3" r:id="rId3"/>
+    <sheet name="1-1" sheetId="4" r:id="rId4"/>
+    <sheet name="1-3" sheetId="5" r:id="rId5"/>
+    <sheet name="5-1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="450">
   <si>
     <t>district</t>
   </si>
@@ -110,6 +113,1306 @@
   </si>
   <si>
     <t>South Ari and Omo Learning Alliance</t>
+  </si>
+  <si>
+    <t>Initials of Person Entering Data</t>
+  </si>
+  <si>
+    <t>Date of Data Entry</t>
+  </si>
+  <si>
+    <t>Concept Team</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Coalition</t>
+  </si>
+  <si>
+    <t>Quarter and Fiscal Year of Measurement 
+(Oct - Sept)</t>
+  </si>
+  <si>
+    <t>Date and description of survey</t>
+  </si>
+  <si>
+    <t># of coalition members surveyed</t>
+  </si>
+  <si>
+    <t># of coalition members with improved understanding</t>
+  </si>
+  <si>
+    <t>Link to Survey Data
+(in Data Library)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Concept 2</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>RuSH Collective Action Network</t>
+  </si>
+  <si>
+    <t>FY18Q1</t>
+  </si>
+  <si>
+    <t>12/7/2017: ONA consultative workshop: Pre and post workshop survey.</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>2 coalition members did not state.</t>
+  </si>
+  <si>
+    <t>12/13/2017: IFML, Post workshop survey</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>FY18Q2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Concept 3</t>
+  </si>
+  <si>
+    <t>C3 SWS Districts</t>
+  </si>
+  <si>
+    <t>FY17Q4</t>
+  </si>
+  <si>
+    <t>No survey conducted</t>
+  </si>
+  <si>
+    <t>SWS Districts</t>
+  </si>
+  <si>
+    <t>FY18Q3</t>
+  </si>
+  <si>
+    <t>Analysis of pre- and post-questionnaires administered at four IFML workshops</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>FY19Q1</t>
+  </si>
+  <si>
+    <t>Survey of Quarterly PPP Review Meeting Attendees to assess their understanding of WASH Systems coducted on Nov. 22, 2018</t>
+  </si>
+  <si>
+    <t>Survey of Quarterly PPP Review Meeting Attendees to assess their understanding of WASH Systems conducted on Dec. 13, 2018</t>
+  </si>
+  <si>
+    <t>Survey of Quarterly PPP Review Meeting Attendees to assess their understanding of WASH Systems conducted on Oct. 31, 2018</t>
+  </si>
+  <si>
+    <t>Survey of IFML-ONA Feedback Workshop Attendees to assess their understanding of WASH Systems conducted on Dec. 4, 2018</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Concept 1</t>
+  </si>
+  <si>
+    <t>Kabarole LA</t>
+  </si>
+  <si>
+    <t>FY19Q3</t>
+  </si>
+  <si>
+    <t>The semi- structured questions were focused on learning by the political, teachnical and service providers( HPMA) on engagements processes, successes and areas for replication into the PAYF model implemented in Kabarole District. Anayses was done by the three LA member categories.</t>
+  </si>
+  <si>
+    <t>Jinja</t>
+  </si>
+  <si>
+    <t>Multi-district rural water workshop with updates on MWE study on rural O&amp;M, gazetting and RWUs</t>
+  </si>
+  <si>
+    <t>The conversation guide was used to update PPP partners on the Ministry study and recommendations for rural water O&amp;M focusing on rural water utilities, Area Service Providers, functionality, tariffs, gazetting, in order to build a common view. Thereafter, participants were given an open-ended conversation questionnaire to assess their understanding of the topics</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Mille LA</t>
+  </si>
+  <si>
+    <t>FY19Q4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>South Ari LA</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Debre Birhan LA</t>
+  </si>
+  <si>
+    <t>Wolisso LA</t>
+  </si>
+  <si>
+    <t>FY20Q1</t>
+  </si>
+  <si>
+    <t>Semi-structured interview questions to assess learning alliance members' understanding of WASH systems after seventh meeting in Woliso on Dec. 20, 2019</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1X_3vVRs-oh7K6QscBZzpFBk5s57OViFr</t>
+  </si>
+  <si>
+    <t>Four semi-structured, open-ended questions asked to learning alliance members after the seventh learning alliance meeting in Woliso.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ULyuGZ6PtHA7G9BvgOxSg9Wsi8V_l432</t>
+  </si>
+  <si>
+    <t>Four semi-structured, open-ended questions asked to learning alliance members after the fifth learning alliance meeting in Debre Birhan.</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>FY20Q2</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the pilot survey which look like focus group discussion by bringing individual on board respond to relevant themes to dig out the main factor that driving force in WASH. The participant includes commune level, district representative and line department who are involved which is held on Wednesday, Dec. 13, 2017. “The improvement of understanding in WASH system” based on the questionnaire which is asking them to tick the box of their understanding after pivot. This is the pilot IFML in Phnom Srouch District, Kampong speu province. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi- structured interview questions administered to the learning alliance members in three categories: political, technical, and the hand pump mechanics focused on learning from the preventive maintainence model during the learning visit to Concept Three in Kamuli. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-structured interview questions to assess learning alliance members' understanding of WASH systems after fifth meeting in Debre Birhan on Jan. 15, 2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the learning alliance members were engaged in PAYF action research data collection processes. </t>
+  </si>
+  <si>
+    <t>Quarter and Fiscal Year of Measurement</t>
+  </si>
+  <si>
+    <t>Date and description of dissemination activity</t>
+  </si>
+  <si>
+    <t>Type of Analysis</t>
+  </si>
+  <si>
+    <t>Actor Type</t>
+  </si>
+  <si>
+    <t>Total # of Stakeholders Reached</t>
+  </si>
+  <si>
+    <t># Female Participants</t>
+  </si>
+  <si>
+    <t># Male Participants</t>
+  </si>
+  <si>
+    <t>Link to Attendance List
+(In Data Library)</t>
+  </si>
+  <si>
+    <t>Comments
+(optional)</t>
+  </si>
+  <si>
+    <t>Changes log (If retrospective changes made to entries, please not what it was, why you changed it, and when."</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>SWS districts</t>
+  </si>
+  <si>
+    <t>FY17Q3</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Learning Allinance meetings to conduct the IFML were also used as a time to present back fndings from ONA, service levels, LCCA, and other analysis</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18i5-Z6_s-RW0AqPULBpDiKk8dRXzpVl-</t>
+  </si>
+  <si>
+    <t>Types of Analysis: Organizational Network Analysis, service levels, LCCA, asset inventory</t>
+  </si>
+  <si>
+    <t>Organizational Network Analysis, service levels, LCCA, asset inventory</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17sJMSihbDjiFodd1hkfLBw_P8nMWJhmu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jDIzST5d95ELjs_GcxqQuxm6HWU0gJMx</t>
+  </si>
+  <si>
+    <t>note to confirm genders w Betty</t>
+  </si>
+  <si>
+    <t>LA meeting to conduct IFML was used to present some findings from network analysis</t>
+  </si>
+  <si>
+    <t>Organizational Network Analysis and preliminatry facto analysis</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1W3lIuPqzcFf4lKw9673qBNWndV73bAnV</t>
+  </si>
+  <si>
+    <t>October 2017- Eng. Aaron Kabirizi of the MoW attended the UNC conference and spoke in the SWS event where findings to date were presented.</t>
+  </si>
+  <si>
+    <t>Organizational Network Analysis, service levels</t>
+  </si>
+  <si>
+    <t>7/12/2017 held a consultative workshop to present findings of Organizational Network Analysis</t>
+  </si>
+  <si>
+    <t>Organizational Network Analysis, CDSA</t>
+  </si>
+  <si>
+    <t>12/12/2017 held a RuSH sub-group meeting to present findings of Organizational Network Analysis</t>
+  </si>
+  <si>
+    <t>13-20/11/2017 held a stakeholder consultation to present findings of Organizational Network Analysis</t>
+  </si>
+  <si>
+    <t>No Attendace list</t>
+  </si>
+  <si>
+    <t>This is one-on-one consultative meeting to seek the commend, question and feedback from stakeholders before the consultative workshop on 07/12/2017.</t>
+  </si>
+  <si>
+    <t>Concept 4</t>
+  </si>
+  <si>
+    <t>13 February 2018: Preliminary results from Water Audit  were presented at Kitui WASH Forum.</t>
+  </si>
+  <si>
+    <t>County Water Audit; mapping out of technical, operations, commercial and governance status of water supply infrastructure in Kitui County</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1srJaq7aWYJYva4uqX5BKyvgnNjNbnTRx</t>
+  </si>
+  <si>
+    <t>Presentation of Water Audit Preliminary Findings at Kitui WASH Forum on 13 Feb 2018</t>
+  </si>
+  <si>
+    <t>presentation of  preliminary findings</t>
+  </si>
+  <si>
+    <t>6 March: Feedback and Learning Meeting on Stakeholder Mapping and Factor Analysis for Sustainable WASH services in Kabarole</t>
+  </si>
+  <si>
+    <t>factor analysis, network analysis</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GYh_ZSM8z3R4dl2JQHwnMFBkb6PrStL4</t>
+  </si>
+  <si>
+    <t>20 March: VIsioning and planning meeting with LA , based on addressing issues from analyses</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aj3VyrWM_cW0G0hMbrNspLVqQjf46kcG</t>
+  </si>
+  <si>
+    <t>29 March 2018: 2nd LA meeting - combine South Ari/South Omo</t>
+  </si>
+  <si>
+    <t>building block analysis as summary of all analyses completed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_uTsTPhKmOugXtoCLddLAdRy20NJ550I</t>
+  </si>
+  <si>
+    <t>Agenda uploaded, meeting report and participants to be added
+SP: Was also conducted with South Omo Zone LA. I removed South Omo for data aggregation</t>
+  </si>
+  <si>
+    <t>03 APril 2018: 2nd LA meeting</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1heAe_8OgcG7QuwZuG8ZVIYDFrACaj8FY</t>
+  </si>
+  <si>
+    <t>Agenda uploaded, meeting report and participants to be added</t>
+  </si>
+  <si>
+    <t>13 March 2018, Capacity Development meeting</t>
+  </si>
+  <si>
+    <t>Organizational Network Analysis</t>
+  </si>
+  <si>
+    <t>Generate data from ONA survey and share with Ministry of Rural Development related to organization who are working on capacity development at sub-national level to develop their project implementation</t>
+  </si>
+  <si>
+    <t>19 March 2018, consultative meeting</t>
+  </si>
+  <si>
+    <t>Generate data from ONA survey and share with EWB related to organization who are working on Sanitation Challenging Environment at sub-national level. Sharing the process of conducting ONA survey by engaging different stakeholders.Engineer Without Boarder (EWB) is the lead of SCE thematic group.</t>
+  </si>
+  <si>
+    <t>30 May 2018: The presentation made at the Kitui WASH Forum included an update of the County Water Audit as well as results of the WASH Forum Survey done in February.</t>
+  </si>
+  <si>
+    <t>Kitui WASH Forum survey</t>
+  </si>
+  <si>
+    <t>Link to New Attendees list May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting revised in line with guidance from EI: "The aim of this indicator is to capture the total number of stakeholders reached, not the number of times that the same people have been engaged. As a result, we want to try to avoid double counting of individuals as much as possible. Where feasible, please keep track of the stakeholders you’ve engaged by name and remove duplicates prior to inputting data to the Performance Indicator Tracking Sheets. So, in the example of the WASH County Forum, you are only including new members in reporting on this indicator for this quarter." </t>
+  </si>
+  <si>
+    <t>17 April 2018: IFML workshop was conducted with Whave Kamuli field staff</t>
+  </si>
+  <si>
+    <t>Factor Mapping</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/18b1UyhmxgPHGXX9oZw2lI3HMRCBt1-_jhGQdKEv0mTM/edit#gid=773172661</t>
+  </si>
+  <si>
+    <t>Iterative Factor Mapping and Learning</t>
+  </si>
+  <si>
+    <t>Number of people changed from 8 (2 females, 6 males) to 0. It was erroneous to record the number of people who participated in the study as the number of people who were reached with findings from the analyses. 
+Change made on 29th January, 2019</t>
+  </si>
+  <si>
+    <t>18 April 2018: IFML workshop was conducted with a mixed group of district and sub-county government officials, water users</t>
+  </si>
+  <si>
+    <t>Number of people changed from 15 (3 females, 12 males) to 0. It was erroneous to record the number of people who participated in the study as the number of people who were reached with findings from the analyses. 
+Change made on 29th January, 2019</t>
+  </si>
+  <si>
+    <t>19 April 2018: IFML workshop was conducted with sub-county government officials</t>
+  </si>
+  <si>
+    <t>Number of people changed from 12 (2 females, 10 males) to 0. It was erroneous to record the number of people who participated in the study as the number of people who were reached with findings from the analyses. 
+Change made on 29th January, 2019</t>
+  </si>
+  <si>
+    <t>20 April 2018: IFML workshop was conducted with water users</t>
+  </si>
+  <si>
+    <t>Number of people changed from 12 (7 females, 5 males) to 0. It was erroneous to record the number of people who participated in the study as the number of people who were reached with findings from the analyses. 
+Change made on 29th January, 2019</t>
+  </si>
+  <si>
+    <t>10-13 April 2018: ONA was conducted in Kamuli</t>
+  </si>
+  <si>
+    <t>Network Analysis</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1mOZuEAhWJ5eijcQjUAY9mv40qDaCMdidJOujIHJkBZ0/edit#gid=1897572938</t>
+  </si>
+  <si>
+    <t>Attendants list not 100% complete in terms of gender (21 participants not clear which gender) Organizational Network Analysis</t>
+  </si>
+  <si>
+    <t>Number of people changed from 51 (8 females, 22 males) to 0. It was erroneous to record the number of people who participated in the study as the number of people who were reached with findings from the analyses. 
+Change made on 29th January, 2019</t>
+  </si>
+  <si>
+    <t>Dissemination of ONA data to sector stakeholders on request</t>
+  </si>
+  <si>
+    <t>A number of stakeholders operating in the RuSH sector have approached WaterSHED with requests for information stemming from the ONA and CDSA research. This table is a brief log of requests made prior to the ONA/CDSA report being released.</t>
+  </si>
+  <si>
+    <t>No Coalition Indicated</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>FY18Q4</t>
+  </si>
+  <si>
+    <t>13 September 2018: The presentation made at the Forum included preliminary findings from the Organizational Network Analysis done in July/August 2018. A presentation on the results of the WASH Forum Survey done during the May 2018 Forum was also made.</t>
+  </si>
+  <si>
+    <t>Presentation of Preliminary ONA findings  and May 2018 Kitui WASH Forum survey results</t>
+  </si>
+  <si>
+    <t>Link to new attendees list Sept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting only new attendees of forum in line with guidance from EI: "The aim of this indicator is to capture the total number of stakeholders reached, not the number of times that the same people have been engaged. As a result, we want to try to avoid double counting of individuals as much as possible. Where feasible, please keep track of the stakeholders you’ve engaged by name and remove duplicates prior to inputting data to the Performance Indicator Tracking Sheets. So, in the example of the WASH County Forum, you are only including new members in reporting on this indicator for this quarter." </t>
+  </si>
+  <si>
+    <t>4th Sept 2018: Learning exchange visit including presentations from SWS</t>
+  </si>
+  <si>
+    <t>Life-Cycle Cost Analysis</t>
+  </si>
+  <si>
+    <t>Types of Analysis: Results and findings from LCCA and baseline assessments, as well as progress on systems strengthening initiatives so far. Focus was not on presenting pure results of systems analysis, but effectively shared systems findings 
+SP: National level</t>
+  </si>
+  <si>
+    <t>(1st LA meeting [Sep 2018], Debre Birhan)</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>LA (local stakeholders)</t>
+  </si>
+  <si>
+    <t>attendance list in report</t>
+  </si>
+  <si>
+    <t>Final version of baseline assessment was presented at LA meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NG</t>
+  </si>
+  <si>
+    <t>Dec. 14, 2018: The presentation made at the Forum included findings from the Organizational Network Analysis</t>
+  </si>
+  <si>
+    <t>Local Stakeholders</t>
+  </si>
+  <si>
+    <t>Link to new attendees list December</t>
+  </si>
+  <si>
+    <t>Dec. 4, 2018: IMFL-ONA Feedback Workshop was conducted</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>Nov-19, presentation of communal/public survey report at LA Meeting</t>
+  </si>
+  <si>
+    <t>Lucia moved to FY18Q4 on 2/5</t>
+  </si>
+  <si>
+    <t>November 19, presentation of learning visit report at LA meeting</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>see link above</t>
+  </si>
+  <si>
+    <t>FY19Q2</t>
+  </si>
+  <si>
+    <t>Mar. 3, 2019: C3 provided feedback from responses to post-meeting questionnaires distributed after the Oct. 31, 2018 Quarterly Review Meeting</t>
+  </si>
+  <si>
+    <t>SP: Removed from count as meetings not related to systems analysis. Previously entered numbers on participation, male, and female. are at right.</t>
+  </si>
+  <si>
+    <t>Feb. 21, 2019: C3 provided feedback from responses to post-meeting questionnaires ditributed after the 22 November, 2018 Quarterly Review Meeting</t>
+  </si>
+  <si>
+    <t>Feb. 14, 2019: C3 provided feedback from responses to post-meeting questionnaires ditributed after the Dec. 13, 2018 Quarterly Review Meeting</t>
+  </si>
+  <si>
+    <t>Mar. 19, 2019: The presentation on Effectiveness of local WASH systems analyses on service improvement made at the Uganda Water and Environment Week.</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dbUAvXTO_TlKoq8r5fmxgJlI6pq35Dbg  https://drive.google.com/open?id=1Vp7MtCYrSSrliF7ZYRkipjGTfgb8C-Eo</t>
+  </si>
+  <si>
+    <t>List of participants is in the Side session report</t>
+  </si>
+  <si>
+    <t>Feb. 1-2, 2019: ToT on communal latrine management guidelines</t>
+  </si>
+  <si>
+    <t>Implementing Partner</t>
+  </si>
+  <si>
+    <t>LH to upload final report when ready</t>
+  </si>
+  <si>
+    <t>Feb. 22, 2019: Training on communal latrine management guidelines</t>
+  </si>
+  <si>
+    <t>Learning Alliance</t>
+  </si>
+  <si>
+    <t>Jan. 30-31, 2019: Advanced Participatory Methods (APM) [group facilitation] training</t>
+  </si>
+  <si>
+    <t>C1_Woliso_Debre Birhan_APM Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participatory Building Block analysis conducted during 6th learning alliance meeting. </t>
+  </si>
+  <si>
+    <t>Building Blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/open?id=1GILOX866aTgcpSe_DQL7lqLuRXBDBRuL </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GILOX866aTgcpSe_DQL7lqLuRXBDBRuL</t>
+  </si>
+  <si>
+    <t>7 29 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the July 12, 2019; IRC facilitated the Ministry of Water and environment to share learning with other WASH partners on Operation and maintenace practices in Uganda  and current recommendation. </t>
+  </si>
+  <si>
+    <t>Asset Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep. 25, 2019: DB 4th Learning Allinace meeting </t>
+  </si>
+  <si>
+    <t>Latrine Facilities Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Allinace </t>
+  </si>
+  <si>
+    <t>List of participants in the report</t>
+  </si>
+  <si>
+    <t>Aug. 14, 2019: ONA midterm review workshop</t>
+  </si>
+  <si>
+    <t>Report will be added by LINC</t>
+  </si>
+  <si>
+    <t>Aug. 13, 2019: ONA midterm review workshop</t>
+  </si>
+  <si>
+    <t>On June 12-13, 2019: C1 (IRC) hosted C3 (Whave) to learn about PAYF aspects for possible replication.</t>
+  </si>
+  <si>
+    <t>PAYF Analysis</t>
+  </si>
+  <si>
+    <t>Ministry of Water and Environment learning visit to Kabarole Pay-As-You-Fetch model</t>
+  </si>
+  <si>
+    <t>LA members and IRC presentations at the AfWA congress from 24- 27 February 2020</t>
+  </si>
+  <si>
+    <t>Other - conference</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lu0pD35tSP_RSgQt8ck_f8Jcit1HRKrT :                    https://drive.google.com/open?id=1FQ6C5eUVlOEyUh_Mw7YPzt7mGG5sETUF  :  https://drive.google.com/open?id=17pAvYOaQ-VOFwSLJQxKo95VSLaAkRmG8 : https://drive.google.com/open?id=17CoS2j09G33EKv1AYtRU8iXE-cujGJGJ</t>
+  </si>
+  <si>
+    <t>Congress participate on estimation over 40 persons</t>
+  </si>
+  <si>
+    <t>SWS Partners Involved</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name and description of evidence product or verbal presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link to Product or Recording
+</t>
+  </si>
+  <si>
+    <t>Verbal Presentation</t>
+  </si>
+  <si>
+    <t>Presentation on Whave's WASH system model at the UNC Conference in October 2017</t>
+  </si>
+  <si>
+    <t>Grey Literature</t>
+  </si>
+  <si>
+    <t>Report on the Learning Visit to Uganda on Rural Water Supply Maintenance 19-25 November 2017</t>
+  </si>
+  <si>
+    <t>Contributed to the report</t>
+  </si>
+  <si>
+    <t>End of 2017 Project Report</t>
+  </si>
+  <si>
+    <t>Blog post on the Ethiopian learning visit to Uganda November 2017</t>
+  </si>
+  <si>
+    <t>Contributed to the blog post</t>
+  </si>
+  <si>
+    <t>How to build strong wash systems at district and town level in Ethiopia and Uganda. Presentation during UNC2017 SWS side event</t>
+  </si>
+  <si>
+    <t>USAID local systems approach and piloting in Ethiopia within the Sustainable WASH Systems Initiative: Learning seminar 8 June 2017 in Addis Ababa</t>
+  </si>
+  <si>
+    <t>Blog: Learning how to fix the system and not just the pump</t>
+  </si>
+  <si>
+    <t>By John Butterworth IRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog: Using Network Analysis for a Local Sanitation Alliance_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Matt Guttentag LINC </t>
+  </si>
+  <si>
+    <t>Blog: Sustainable Development Goals are leaving behind shared sanitation</t>
+  </si>
+  <si>
+    <t>by Kimmy Pugel UCB on IRC website</t>
+  </si>
+  <si>
+    <t>Blog: Shouted at by water users and shouting for support</t>
+  </si>
+  <si>
+    <t>By Marieke Adank, IRC</t>
+  </si>
+  <si>
+    <t>FY17Q2</t>
+  </si>
+  <si>
+    <t>Blog: Systems change at district level: where do we start? The case of South Ari district, Ethiopia</t>
+  </si>
+  <si>
+    <t>by Catarina Fonseca IRC</t>
+  </si>
+  <si>
+    <t>Using Organizational Network Analysis for a better understanding of the WASH system</t>
+  </si>
+  <si>
+    <t>UNC presentation by Janita Bartell, WaterSHED</t>
+  </si>
+  <si>
+    <t>No knowledge products created in this period</t>
+  </si>
+  <si>
+    <t>No knowledge products or presentations were communicated to key SWS audiences.</t>
+  </si>
+  <si>
+    <t>Blog: Sitting on a gold mine: a team representing government and NGOs from Ethiopia joined a visit to Ghana to learn about planning for achieving the Sustainable Development Goals for WASH.</t>
+  </si>
+  <si>
+    <t>by John Butterworth, IRC</t>
+  </si>
+  <si>
+    <t>SUSTAINABLE WASH SYSTEMS _x000B_&amp; Sustainable WASH Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by Harold Lockwood, AguaConsult. </t>
+  </si>
+  <si>
+    <t>Webinar: Actor and Factors Affecting WASH Sustainability in Kabarole District, Uganda</t>
+  </si>
+  <si>
+    <t>by Angela Huston and Duncan McNicholl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webinar: Organizational Network Analysis (ONA), Using Network Analysis to Understand and Strengthen WASH Systems, Cambodia </t>
+  </si>
+  <si>
+    <t>By  Janita Bartell, WaterSHED</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Research Brief: Network Analysis and Systems Assessment for Sustainability in the Rural Sanitation and Hygiene Sector in Cambodia</t>
+  </si>
+  <si>
+    <t>LINC and WaterSHED</t>
+  </si>
+  <si>
+    <t>ONA customized report: Sanitation for Challenging Environments</t>
+  </si>
+  <si>
+    <t>ONA customized report: Fecal Sludge Management</t>
+  </si>
+  <si>
+    <t>ONA customized report: Rural Sanitation and Hygiene Subgroup</t>
+  </si>
+  <si>
+    <t>ONA customized report: Engineers Without Borders</t>
+  </si>
+  <si>
+    <t>Network Analysis and Systems Assessment for Sustainability in the Rural Sanitation and Hygiene Sector in Cambodia</t>
+  </si>
+  <si>
+    <t>&lt;link to be inserted when product is available&gt;</t>
+  </si>
+  <si>
+    <t>Document with UCB for finalization and formating</t>
+  </si>
+  <si>
+    <t>Presentation at 41st WEDC International Conference in Kenya on 12 July 2018; Title: From Cost Recovery to Sustainable Financing of Rural Water Services</t>
+  </si>
+  <si>
+    <t>FCC Provincial and Distrct Selection Criteria</t>
+  </si>
+  <si>
+    <t>WaterSHED</t>
+  </si>
+  <si>
+    <t>FCC PWG Advisory Group</t>
+  </si>
+  <si>
+    <t>FCC Leadership cohorts</t>
+  </si>
+  <si>
+    <t>FCC Master Trainers</t>
+  </si>
+  <si>
+    <t>FCC Provincial Trainers</t>
+  </si>
+  <si>
+    <t>FCC Leadership Discover 1 Conference</t>
+  </si>
+  <si>
+    <t>Published Literature</t>
+  </si>
+  <si>
+    <t>WEDC paper on Life Cycle Analysis. Presented at the 41st WEDC International Conference in Kenya in July 2018</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1DjCNPoAles4hx3T6LNx_dxD-4-WE0lge?ogsrc=32</t>
+  </si>
+  <si>
+    <t>By Sam Butterworth &amp; Duncan McNicholl, Whave</t>
+  </si>
+  <si>
+    <t>WEDC paper on Shock Chlorination. Presented at the 41st WEDC International Conference in Kenya in July 2018</t>
+  </si>
+  <si>
+    <t>By Adriana Verkerk &amp; Duncan McNicholl, Whave</t>
+  </si>
+  <si>
+    <t>ONA and CDSA presentation</t>
+  </si>
+  <si>
+    <t>LINC</t>
+  </si>
+  <si>
+    <t>RuSH subgroup presentation - April meeting</t>
+  </si>
+  <si>
+    <t>RuSH subgroup ONA and CDSA presentation - May Meeting</t>
+  </si>
+  <si>
+    <t>RuSH subgroup ONA and CDSA presentation - July Meeting</t>
+  </si>
+  <si>
+    <t>ONA and CA workshop report</t>
+  </si>
+  <si>
+    <t>WaterSHED and LINC</t>
+  </si>
+  <si>
+    <t>Gender Review</t>
+  </si>
+  <si>
+    <t>Situation Analysis - Draft</t>
+  </si>
+  <si>
+    <t>FCC Theory of Change</t>
+  </si>
+  <si>
+    <t>ONA/CDSA Consultative Workshop</t>
+  </si>
+  <si>
+    <t>Link - AM Concurrent Sessions</t>
+  </si>
+  <si>
+    <t>Link - AM Plenery</t>
+  </si>
+  <si>
+    <t>Link - PM Plenery</t>
+  </si>
+  <si>
+    <t>RuSH subgroup ONA presentation</t>
+  </si>
+  <si>
+    <t>TWG-s Support Group establishment presentation &amp; agenda</t>
+  </si>
+  <si>
+    <t>TWG-s Support Group establishment presentation</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>RuSH sub group   ONA presentationpresentation</t>
+  </si>
+  <si>
+    <t>Understanding Factors and Actors to Achieve Sustainable Drinking Water Systems in Kitui County, Kenya</t>
+  </si>
+  <si>
+    <t>Rob Hope presenter at SWS webinar on Systems for Preventive Maintenance Models for Sustainable Rural Water Services</t>
+  </si>
+  <si>
+    <t>SWS webinar on Systems for Preventive Maintenance Models for Sustainable Rural Water Services</t>
+  </si>
+  <si>
+    <t>Whave published a case study in the Uganda Water and Sanitation NGO Network Performance Report for 2018 (Pg.25-27)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1DjCNPoAles4hx3T6LNx_dxD-4-WE0lge?ogsrc=32</t>
+  </si>
+  <si>
+    <t>Blog: Contextualising success and failure at three handpumps in Uganda</t>
+  </si>
+  <si>
+    <t>Blog by UCB practicum student doing research with IRC UGanda in association with the action-research project on Pay as you Fetch payment model</t>
+  </si>
+  <si>
+    <t>Report: Analysis on IRC's use of Pay as You Fetch : Kabarole district, Uganda</t>
+  </si>
+  <si>
+    <t>Report by UCB practicum student doing research with IRC UGanda in association with the action-research project on Pay as you Fetch payment model</t>
+  </si>
+  <si>
+    <t>Briefing Note: Real-time monitoring for improved water services in the Ethiopian Lowlands</t>
+  </si>
+  <si>
+    <t>brief by :USAID Lowland WASH Activity and USAID Sustainable WASH Systems
+Learning Partnership Briefing Note</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Learning Team</t>
+  </si>
+  <si>
+    <t>Kim Pugel presented at Engineering Projects and Organizations Conference on Factor &amp; Actor Networks: Alignment of Collective Action Groups for Water Sustainability in Ethiopia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DJmoe17YVDXML29IMUxvsTUiGcecARoP</t>
+  </si>
+  <si>
+    <t>Conference Proceedings, Factor &amp; Actor Networks: Alignment of Collective Action Groups for Water Sustainability in Ethiopia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Uzh3xjSPuHnZGHBmqAsd9s4nWPR-fL-2</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>IRC Blog: Contextualising success and failure at three handpumps in Uganda</t>
+  </si>
+  <si>
+    <t>https://www.ircwash.org/profile-main/906474?tab=posts</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Practicum Report</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Systems Analysis to Understand and Strengthen WASH Systems - Presentation at CO WASH Symposium - Mar 2018 </t>
+  </si>
+  <si>
+    <t>Summary report of Baseline Iterative Factor Mapping &amp; Learning (IFML) Workshops w Concept 2</t>
+  </si>
+  <si>
+    <t>Summary report of Baseline Iterative Factor Mapping &amp; Learning (IFML) Workshops w Concept 1</t>
+  </si>
+  <si>
+    <t>Summary report of Baseline Iterative Factor Mapping &amp; Learning (IFML) Workshops w Concept 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating Dynamic Processes of Rural Water Service Delivery Schemes in Sub-Saharan African Communities - Presentation at International Systems Dynamic Conference, Reykjavik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Interactive Group Model Building Process for Mapping Complexities of Local WASH Systems - Poster at UNC Water and Health Conference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems Approaches to WASH: A Systematic Literature Review - Poster at  UNC Water and Health Conference </t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SWS Fact Sheet</t>
+  </si>
+  <si>
+    <t>FCC Participant List</t>
+  </si>
+  <si>
+    <t>FCC Award Winners List</t>
+  </si>
+  <si>
+    <t>FCC Provincial Workshop Presentation and Report</t>
+  </si>
+  <si>
+    <t>FCC Provincial Working Group Advisory Group D1 Presentation and Report</t>
+  </si>
+  <si>
+    <t>FCC Provincial Working Group Advisory Group D2 Presentation and Report</t>
+  </si>
+  <si>
+    <t>Webinar: Organizational Network Analysis (ONA), Using Network Analysis to Understand and Strengthen WASH Systems (Woliso)</t>
+  </si>
+  <si>
+    <t>Webinar link</t>
+  </si>
+  <si>
+    <t>Tetra Tech</t>
+  </si>
+  <si>
+    <t>SWS urban sanitation experience/update presented to USAID Ethiopia</t>
+  </si>
+  <si>
+    <t>Presentation to USAID Ethiopia Mission</t>
+  </si>
+  <si>
+    <t>SWS presentation on progress at Mille Woreda at a workshop to evaluate  Sustainability of water and sanitation schemes through Small and Micro Enterprises project</t>
+  </si>
+  <si>
+    <t>By Lemessa Mekonta IRC</t>
+  </si>
+  <si>
+    <t>Presentation: "System Dynamics Modelling as a Tool for Assessing Rural Water Sustainability" - at IRC All Systems Go Conference</t>
+  </si>
+  <si>
+    <t>Pugel presented at UNC 2018 Using Network Analysis to Understand Alignment Toward Collective Action, slides uploaded to globalwaters</t>
+  </si>
+  <si>
+    <t>https://www.globalwaters.org/resources/assets/sws/using-network-analysis-to-understand</t>
+  </si>
+  <si>
+    <t>Preventative Maintenance Literature Review (10 pager)</t>
+  </si>
+  <si>
+    <t>Kiamba and Chintalapati - Kitui ONA and Stakeholder Understanding Report</t>
+  </si>
+  <si>
+    <t>Link added 2019</t>
+  </si>
+  <si>
+    <t>Conference paper: "System Dynamics Modelling as a Tool for Assessing Rural Water Sustainability" - at IRC All Systems Go Conference</t>
+  </si>
+  <si>
+    <t>https://www.ircwash.org/resources/system-dynamics-modelling-tool-assessing-rural-water-sustainability</t>
+  </si>
+  <si>
+    <t>Blog Post on IRC website "The 'art' in partnerships"</t>
+  </si>
+  <si>
+    <t>https://www.ircwash.org/blog/%E2%80%98art%E2%80%99-partnerships?utm_source=IRC+Newsletter+Amplify&amp;utm_campaign=c02e1e932e-Amplify_Oct_2018_COPY_01&amp;utm_medium=email&amp;utm_term=0_13b5dad9d5-c02e1e932e-57618821</t>
+  </si>
+  <si>
+    <t>Conference paper: "What is a collective action approach and what makes it effective?" at All Systems Go conference</t>
+  </si>
+  <si>
+    <t>https://www.ircwash.org/resources/what-collective-action-approach-and-what-makes-it-effective-desk-review</t>
+  </si>
+  <si>
+    <t>Research Brief: "Emerging Lessons on Sustaining Rural Water Services in Uganda:  A Case Study of Whave’s Preventative Maintenance Model"</t>
+  </si>
+  <si>
+    <t>Muhammed Ibrahim and Lucia Henry present at CU WASH Symposium presentation on collective action/ learning alliances</t>
+  </si>
+  <si>
+    <t>KP suggest deleting this row as Lucia added this presentation with the ppt linked, below.</t>
+  </si>
+  <si>
+    <t>Moving toward prevention: rural water maintenance and sustained service delivery at All Systems Go</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/1/folders/1WmdHme7AAISnpAEufGpntTJk-i0bLNYx</t>
+  </si>
+  <si>
+    <t>Moving toward prevention: rural water maintenance and sustained service delivery</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/1/folders/1rYDhPbOQ8ttojC148_BEUargDsc-Q-zk</t>
+  </si>
+  <si>
+    <t>Analysis on IRC's Use of Pay as You Fetch</t>
+  </si>
+  <si>
+    <t>published to IRC's site following last year's practicum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conference Paper: Understanding complexity in WASH systems (ASG)</t>
+  </si>
+  <si>
+    <t>https://www.ircwash.org/resources/understanding-complexity-wash-systems</t>
+  </si>
+  <si>
+    <t>Workshop: Embracing Complexity: Thinking in systems and what it means for WASH (ASG)</t>
+  </si>
+  <si>
+    <t>Session at All Systems Go symposium (IRC), March 2019</t>
+  </si>
+  <si>
+    <t>Workshop: Factor Mapping for WASH Systems (ASG)</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Progress Tracking: Outcome Mapping and Scorecards Case Study from SWS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14XQQPCDG-6OnObd8NHSrcpZQzllRryAB</t>
+  </si>
+  <si>
+    <t>2019 Colorado WASH Symposium</t>
+  </si>
+  <si>
+    <t>A Water Infrastructure Audit of Kitui County</t>
+  </si>
+  <si>
+    <t>Presentation at IRC All Systems Go! WASH Systems Symposium on FundiFix model by Cliff Nyaga</t>
+  </si>
+  <si>
+    <t>Presentation at IRC All Systems Go! WASH Systems Symposium on ONA findings by Pauline Kiamba, part of cross-concept presentation</t>
+  </si>
+  <si>
+    <t>Presentation at UWEWK 2019- Understanding the enabling environment for Effective WASH service Delivery at a Decentralized Level’</t>
+  </si>
+  <si>
+    <t>Presentation at Afar Asset management system learning workshop</t>
+  </si>
+  <si>
+    <t>February 28 &amp; 29 2019: Workshop on Afar Asset Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conference Paper: Presentation at IRC All Systems Go! WASH Systems Symposium on Facilitating local strengthening of WASH systems: 
+Whose understanding counts? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conference Paper: Presentation at IRC All Systems Go! WASH Systems Symposium on South Omo Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conference Paper: Presentation at IRC All Systems Go! WASH Systems Symposium on Systems strengthening initiatives in Ethiopia</t>
+  </si>
+  <si>
+    <t>Presentation at CU WASH Symposium on Afar and Somali Monitoring System</t>
+  </si>
+  <si>
+    <t>Presentation at World Water Day on Afar and Somali Monitoring System</t>
+  </si>
+  <si>
+    <t>Webinar: Designing for Sustainability - Bringing Citywide Inclusive Sanitation to Ethiopia</t>
+  </si>
+  <si>
+    <t>Recording on SWS microsite (globalwaters.org)</t>
+  </si>
+  <si>
+    <t>All Systems Go!
+Facilitating local strengthening of WASH systems : whose understanding counts?</t>
+  </si>
+  <si>
+    <t>Conference paper (pdf)</t>
+  </si>
+  <si>
+    <t>Jointly prepared by C1 partners (IRC and Tt)</t>
+  </si>
+  <si>
+    <t>All Systems Go!
+The Sanitation Cityscape Conceptual Framework - understanding urban sanitation systems</t>
+  </si>
+  <si>
+    <t>Application of Sanitation Cityscape Approach (SCA) in Debre Birhan presented by Pippa Scott (Tt consultant)</t>
+  </si>
+  <si>
+    <t>CU WASH Symposium 2019
+Workshop
+There's No "I" in WASH:
+Learning the Learning Alliance Approach</t>
+  </si>
+  <si>
+    <t>Presentation (ppt)</t>
+  </si>
+  <si>
+    <t>Jointly developed and led by UCB, MIbrahim (Ethiopia LA Facilitator) and LHenry (Tt)</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU WASH Symposium 2019
+Workshop key note address </t>
+  </si>
+  <si>
+    <t>All Systems Go!_x000D_
+The Evolution of Rural Drinking Water Sector for Service Delivery in Uganda</t>
+  </si>
+  <si>
+    <t>Sustaining Rural Water Supplies in the East African Lowlands: Risks, Innovation, and Rewards</t>
+  </si>
+  <si>
+    <t>UNC Water &amp; Health</t>
+  </si>
+  <si>
+    <t>Factors that Influence Use of Monitoring Data for Informing Evidence-Based Decision-Making</t>
+  </si>
+  <si>
+    <t>April 18: Systems strengthening seminar</t>
+  </si>
+  <si>
+    <t>May 9th to 10th: Uganda-Ethiopia dialogue on rural water maintenance</t>
+  </si>
+  <si>
+    <t>Following the learning visit to Uganda in 2017, IRC-Ethiopia in collaboration with COWASH and USAID Lowland WASH activities organized rural water Operation and Maintenance Policy dialogue for Uganda Government in Addis Ababa. The participants were 7 delegates from Uganda and 25 participants from Ethiopian Ministry of Water, Irrigation and Energy, Regional SNNP, Afar, Somali and Amhara) Water Bureaus and CSOs.</t>
+  </si>
+  <si>
+    <t>June 17 to 20: The first Ethiopian Water and Energy Weeks organized by MoWIE</t>
+  </si>
+  <si>
+    <t>To be added when report comes out</t>
+  </si>
+  <si>
+    <t>Its not verbal presentation. IRC had a booth in the WASH section and we were also responsible for the documentation of the whole event. There were 2 side events organized by IRC on ending drought emergencies and sanitation marketing. Instead the Ministry (MoWIE) was everywhere and led the conversation which was good. Diversification was a hot topic, both in energy (moving away from overreliance on hydropower) to water resources management and financing for water sector. There was much more discussion on WRM and post-construction support than ever before talked about at the national level in Ethiopia.</t>
+  </si>
+  <si>
+    <t>May 9th-10th 2019: Report on proceedings IRC  Uganda-Ethiopia Learning Visit on rural water maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Concept 1 Uganda learning visit to Ethiopia involved Ministry of Water and Environment team Of Uganda learning from thier Ethiopian conunter parts. The key objectives were to share updates, information, and build linkages between officials driving rural water supply maintenance in Uganda and Ethiopia.; develop understanding of the likelihood and possible directions of policy change in Uganda and Ethiopia with respect to rural water supply maintenance and formulate key recent lessons learned in each country (to be used as part of the review of activities by the SWS Learning Partnership to guide future activities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12TH July 2019: Report onthe National seminar on operations and maintainance </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On July 12th the Ministry of Water and Environment in conjunction with IRC Uganda, hosted a   national dialogue on Operation and Maintenance (O&amp;M). The purpose was to provide a platform for partners supporting O&amp;M to share experiences, learn from each other and adopt actions forimproving sustainability of rural water services. _x000D_
+The dialogue attracted participants from the Ministry of Water and Environment – Infrastructure Operation and Maintenance Division, Technical Support Units and District Water Offices (DWOs). Other participants came from International Development Partners, National Non-Government Organizations (NGOs), and the private sector. Additionally, there were some participants from Ethiopia and Kenya, who are part of the USAID Sustainable WASH System (SWS). The Agenda for Change Partnership was also represented by WaterAid_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2019: Reports on the Exchange learning visits between concept one and three Uganda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/open?id=1ieyosm-o0gwmfu-qrerjmopizrmvnbyw                  https://drive.google.com/open?id=1t4hodsw7urhlyic4ckb79yb                                                        https://drive.google.com/open?id=1ka9bdjnzi0hhpen5-nm_rcoeqxy65gg3                                                                    </t>
+  </si>
+  <si>
+    <t>In June 2019, the exchange learning visit between concept one and three targetd the learning on political, teachnical and WASH service provider engagements with communities to improve access and availability of WASH services for all. To share and learn from each concept team, aspects for possible replication for rural water service improvement. While in May 2019, the LA (political, teachnical and HPMAs) undertook a learning visit to Kamwenge to learn about approaches for increasing willingness to pay for water to ensure sustainable WASH services.</t>
+  </si>
+  <si>
+    <t>May 2019: "Rural Water O&amp;M Cost Model" published on C3 website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2019: Article "Rural Water in Uganda: Who, What, How?" published in the Water Solutions Magazine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factors Influencing Revenue Collection for Preventive Maintenance of Community Water Systems </t>
+  </si>
+  <si>
+    <t>Performance-based funding for Reliable Rural Water Services in Africa</t>
+  </si>
+  <si>
+    <t>This study aims to address information gap that hinders investment in rural water services. It is an output (GIZ-funded) from the Uptime Consortium, of which SWS C4 and C1 are part. Using 12 months of operational and financial data from five service providers across four African countries, the report explores two questions: 1) What data are available to assess the financial and operational performance of rural maintenance providers?; 2) What performance metrics can be compared to inform an investment case to deliver SDG 6.1?</t>
+  </si>
+  <si>
+    <t>Collective Impact Presentation at USAID's Systems Summit</t>
+  </si>
+  <si>
+    <t>SWS urban sanitation update presented to USAID Ethiopia</t>
+  </si>
+  <si>
+    <t>Blog: Facilitation Makes the Difference</t>
+  </si>
+  <si>
+    <t>Joint SWS and MWA session at UNC Water and Health Conference 2019</t>
+  </si>
+  <si>
+    <t>Contributed to materials for learning alliance role play and verbal presentation at session</t>
+  </si>
+  <si>
+    <t>Assessing Maintenance Interventions to Improve the Sustainability of Rural Water Services - Poster presentation at OU Conference</t>
+  </si>
+  <si>
+    <t>The RWSN International Directory of Rural Water Supply Models, Tariffs and Lifecycle Costs</t>
+  </si>
+  <si>
+    <t>Understanding coordination in Kitui County's Water Sector Kenya</t>
+  </si>
+  <si>
+    <t>Collective Impact Presenation at USAID's UNC Water &amp; Health</t>
+  </si>
+  <si>
+    <t>Monitoring Systems Change Presentation at UNC Water &amp; Health</t>
+  </si>
+  <si>
+    <t>Collective Action presentation at Engineering Projects and Organizations Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventing Failure in Rural WASH Systems: Mapping and Modelling Rural Water Maintenance Approaches </t>
+  </si>
+  <si>
+    <t>Nothing to report</t>
+  </si>
+  <si>
+    <t>Delphi Presentation to Experts (invite-only)</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Making the Sustainability Commitment: Build your own preventive maintenance agreement Workshop at 2020 Colorado WASH Symposium</t>
+  </si>
+  <si>
+    <t>Session Outline</t>
+  </si>
+  <si>
+    <t>Session Slides</t>
   </si>
 </sst>
 </file>
@@ -145,8 +1448,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +1895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8DA2FE-F865-45C9-A7E2-D036FBE79F88}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
@@ -6774,4 +8081,6239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BC13A-9558-45F0-898B-9642EEE71823}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43486</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43486</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43486</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43486</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43675</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43677</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43748</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43748</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43767</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43767</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43853</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43853</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800F37F4-ECBA-4133-BFE9-7B4EB0CF368A}">
+  <dimension ref="A1:O57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43073</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43088</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9">
+        <v>106</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12">
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13">
+        <v>57</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>140</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43377</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43377</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>153</v>
+      </c>
+      <c r="N24" t="s">
+        <v>154</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N25" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43385</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>174</v>
+      </c>
+      <c r="N28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43390</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43392</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43489</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43494</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43501</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43501</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>14</v>
+      </c>
+      <c r="M34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43501</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" t="s">
+        <v>196</v>
+      </c>
+      <c r="M36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" t="s">
+        <v>199</v>
+      </c>
+      <c r="M38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43528</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>202</v>
+      </c>
+      <c r="N39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M40" t="s">
+        <v>206</v>
+      </c>
+      <c r="O40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M41" t="s">
+        <v>206</v>
+      </c>
+      <c r="O41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>210</v>
+      </c>
+      <c r="O42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" t="s">
+        <v>205</v>
+      </c>
+      <c r="M43" t="s">
+        <v>210</v>
+      </c>
+      <c r="O43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43748</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44">
+        <v>28</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43748</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45">
+        <v>37</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>34</v>
+      </c>
+      <c r="M45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J46">
+        <v>40</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43747</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43747</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48">
+        <v>21</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>16</v>
+      </c>
+      <c r="M48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43747</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43748</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" t="s">
+        <v>226</v>
+      </c>
+      <c r="I50" t="s">
+        <v>208</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43853</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43853</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" t="s">
+        <v>227</v>
+      </c>
+      <c r="H56" t="s">
+        <v>193</v>
+      </c>
+      <c r="I56" t="s">
+        <v>201</v>
+      </c>
+      <c r="J56">
+        <v>7</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44016</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>228</v>
+      </c>
+      <c r="H57" t="s">
+        <v>229</v>
+      </c>
+      <c r="I57" t="s">
+        <v>186</v>
+      </c>
+      <c r="M57" t="s">
+        <v>230</v>
+      </c>
+      <c r="N57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E60049D-2484-408F-9B99-BC80FA69C5E1}">
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43087</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43199</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43377</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43294</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43308</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43308</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43308</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43308</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>289</v>
+      </c>
+      <c r="H33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43310</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>289</v>
+      </c>
+      <c r="H34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>304</v>
+      </c>
+      <c r="H43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" t="s">
+        <v>305</v>
+      </c>
+      <c r="H44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" t="s">
+        <v>306</v>
+      </c>
+      <c r="H45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" t="s">
+        <v>307</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F47" t="s">
+        <v>307</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" t="s">
+        <v>309</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43312</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" t="s">
+        <v>311</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="2">
+        <v>43414</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" t="s">
+        <v>312</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43414</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" t="s">
+        <v>313</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43388</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" t="s">
+        <v>315</v>
+      </c>
+      <c r="G53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43390</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" t="s">
+        <v>317</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43390</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" t="s">
+        <v>319</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43390</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" t="s">
+        <v>321</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C57" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>323</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C58" t="s">
+        <v>324</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" t="s">
+        <v>327</v>
+      </c>
+      <c r="G58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C59" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>236</v>
+      </c>
+      <c r="F61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>334</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C62" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C64" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" t="s">
+        <v>236</v>
+      </c>
+      <c r="F65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43402</v>
+      </c>
+      <c r="C67" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43404</v>
+      </c>
+      <c r="C68" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F68" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" t="s">
+        <v>236</v>
+      </c>
+      <c r="F71" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" t="s">
+        <v>347</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" t="s">
+        <v>348</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43136</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" t="s">
+        <v>349</v>
+      </c>
+      <c r="G77" t="s">
+        <v>350</v>
+      </c>
+      <c r="H77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
+        <v>236</v>
+      </c>
+      <c r="F78" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" t="s">
+        <v>353</v>
+      </c>
+      <c r="H78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43501</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" t="s">
+        <v>354</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C80" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" t="s">
+        <v>236</v>
+      </c>
+      <c r="F80" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C81" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" t="s">
+        <v>357</v>
+      </c>
+      <c r="G81" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>332</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C82" t="s">
+        <v>324</v>
+      </c>
+      <c r="D82" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C84" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" t="s">
+        <v>195</v>
+      </c>
+      <c r="E84" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" t="s">
+        <v>362</v>
+      </c>
+      <c r="G84" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>323</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C85" t="s">
+        <v>324</v>
+      </c>
+      <c r="D85" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" t="s">
+        <v>364</v>
+      </c>
+      <c r="G85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>323</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" t="s">
+        <v>366</v>
+      </c>
+      <c r="G86" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" t="s">
+        <v>238</v>
+      </c>
+      <c r="F87" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" t="s">
+        <v>236</v>
+      </c>
+      <c r="F88" t="s">
+        <v>369</v>
+      </c>
+      <c r="H88" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C89" t="s">
+        <v>324</v>
+      </c>
+      <c r="D89" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" t="s">
+        <v>236</v>
+      </c>
+      <c r="F89" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>329</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>238</v>
+      </c>
+      <c r="F90" t="s">
+        <v>373</v>
+      </c>
+      <c r="G90" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>329</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" t="s">
+        <v>375</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C92" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" t="s">
+        <v>238</v>
+      </c>
+      <c r="F92" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C93" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" t="s">
+        <v>377</v>
+      </c>
+      <c r="G93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>334</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C94" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" t="s">
+        <v>236</v>
+      </c>
+      <c r="F94" t="s">
+        <v>379</v>
+      </c>
+      <c r="H94" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>334</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C95" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" t="s">
+        <v>236</v>
+      </c>
+      <c r="F95" t="s">
+        <v>381</v>
+      </c>
+      <c r="H95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43539</v>
+      </c>
+      <c r="C96" t="s">
+        <v>324</v>
+      </c>
+      <c r="D96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" t="s">
+        <v>236</v>
+      </c>
+      <c r="F96" t="s">
+        <v>383</v>
+      </c>
+      <c r="G96" t="s">
+        <v>384</v>
+      </c>
+      <c r="H96" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43559</v>
+      </c>
+      <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" t="s">
+        <v>238</v>
+      </c>
+      <c r="F97" t="s">
+        <v>386</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43560</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>236</v>
+      </c>
+      <c r="F98" t="s">
+        <v>387</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43560</v>
+      </c>
+      <c r="C99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" t="s">
+        <v>388</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43562</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>195</v>
+      </c>
+      <c r="E100" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" t="s">
+        <v>389</v>
+      </c>
+      <c r="G100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43566</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" t="s">
+        <v>236</v>
+      </c>
+      <c r="F101" t="s">
+        <v>390</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43566</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>195</v>
+      </c>
+      <c r="E102" t="s">
+        <v>238</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43566</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>195</v>
+      </c>
+      <c r="E103" t="s">
+        <v>238</v>
+      </c>
+      <c r="F103" t="s">
+        <v>393</v>
+      </c>
+      <c r="G103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43566</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" t="s">
+        <v>394</v>
+      </c>
+      <c r="G104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43566</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>195</v>
+      </c>
+      <c r="E105" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" t="s">
+        <v>395</v>
+      </c>
+      <c r="G105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43566</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" t="s">
+        <v>236</v>
+      </c>
+      <c r="F106" t="s">
+        <v>396</v>
+      </c>
+      <c r="G106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>195</v>
+      </c>
+      <c r="E107" t="s">
+        <v>236</v>
+      </c>
+      <c r="F107" t="s">
+        <v>397</v>
+      </c>
+      <c r="G107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G108" t="s">
+        <v>400</v>
+      </c>
+      <c r="H108" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" t="s">
+        <v>236</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H109" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>195</v>
+      </c>
+      <c r="E110" t="s">
+        <v>236</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G110" t="s">
+        <v>405</v>
+      </c>
+      <c r="H110" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>407</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43572</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>195</v>
+      </c>
+      <c r="E111" t="s">
+        <v>236</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>407</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43572</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43573</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" t="s">
+        <v>236</v>
+      </c>
+      <c r="F113" t="s">
+        <v>410</v>
+      </c>
+      <c r="H113" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>342</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43573</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>57</v>
+      </c>
+      <c r="E114" t="s">
+        <v>236</v>
+      </c>
+      <c r="F114" t="s">
+        <v>412</v>
+      </c>
+      <c r="H114" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E115" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" t="s">
+        <v>413</v>
+      </c>
+      <c r="G115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" t="s">
+        <v>414</v>
+      </c>
+      <c r="G116" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>65</v>
+      </c>
+      <c r="E117" t="s">
+        <v>236</v>
+      </c>
+      <c r="F117" t="s">
+        <v>416</v>
+      </c>
+      <c r="G117" t="s">
+        <v>417</v>
+      </c>
+      <c r="H117" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43675</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" t="s">
+        <v>236</v>
+      </c>
+      <c r="F118" t="s">
+        <v>419</v>
+      </c>
+      <c r="G118" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43675</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>65</v>
+      </c>
+      <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
+        <v>421</v>
+      </c>
+      <c r="G119" t="s">
+        <v>422</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="2">
+        <v>43675</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
+        <v>424</v>
+      </c>
+      <c r="G120" t="s">
+        <v>425</v>
+      </c>
+      <c r="H120" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43677</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" t="s">
+        <v>65</v>
+      </c>
+      <c r="E121" t="s">
+        <v>287</v>
+      </c>
+      <c r="F121" t="s">
+        <v>427</v>
+      </c>
+      <c r="G121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" s="2">
+        <v>43677</v>
+      </c>
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" t="s">
+        <v>65</v>
+      </c>
+      <c r="E122" t="s">
+        <v>287</v>
+      </c>
+      <c r="F122" t="s">
+        <v>428</v>
+      </c>
+      <c r="G122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="2">
+        <v>43677</v>
+      </c>
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" t="s">
+        <v>65</v>
+      </c>
+      <c r="E123" t="s">
+        <v>287</v>
+      </c>
+      <c r="F123" t="s">
+        <v>429</v>
+      </c>
+      <c r="G123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" s="2">
+        <v>43683</v>
+      </c>
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" t="s">
+        <v>65</v>
+      </c>
+      <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
+        <v>430</v>
+      </c>
+      <c r="G124" t="s">
+        <v>42</v>
+      </c>
+      <c r="H124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>342</v>
+      </c>
+      <c r="B125" s="2">
+        <v>43719</v>
+      </c>
+      <c r="C125" t="s">
+        <v>324</v>
+      </c>
+      <c r="D125" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" s="2">
+        <v>43692</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s">
+        <v>433</v>
+      </c>
+      <c r="G126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>189</v>
+      </c>
+      <c r="B127" s="2">
+        <v>43723</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
+        <v>434</v>
+      </c>
+      <c r="G127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" t="s">
+        <v>236</v>
+      </c>
+      <c r="F128" t="s">
+        <v>435</v>
+      </c>
+      <c r="G128" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>332</v>
+      </c>
+      <c r="B129" s="2">
+        <v>43723</v>
+      </c>
+      <c r="C129" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" t="s">
+        <v>437</v>
+      </c>
+      <c r="G129" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="2">
+        <v>43754</v>
+      </c>
+      <c r="C130" t="s">
+        <v>124</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" t="s">
+        <v>238</v>
+      </c>
+      <c r="F130" t="s">
+        <v>438</v>
+      </c>
+      <c r="G130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="2">
+        <v>43853</v>
+      </c>
+      <c r="C131" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" t="s">
+        <v>439</v>
+      </c>
+      <c r="G131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>342</v>
+      </c>
+      <c r="B132" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C132" t="s">
+        <v>324</v>
+      </c>
+      <c r="D132" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" t="s">
+        <v>236</v>
+      </c>
+      <c r="F132" t="s">
+        <v>440</v>
+      </c>
+      <c r="G132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43746</v>
+      </c>
+      <c r="C133" t="s">
+        <v>324</v>
+      </c>
+      <c r="D133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" t="s">
+        <v>236</v>
+      </c>
+      <c r="F133" t="s">
+        <v>441</v>
+      </c>
+      <c r="G133" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>323</v>
+      </c>
+      <c r="B134" s="2">
+        <v>43761</v>
+      </c>
+      <c r="C134" t="s">
+        <v>324</v>
+      </c>
+      <c r="D134" t="s">
+        <v>65</v>
+      </c>
+      <c r="E134" t="s">
+        <v>236</v>
+      </c>
+      <c r="F134" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>329</v>
+      </c>
+      <c r="B135" s="2">
+        <v>43761</v>
+      </c>
+      <c r="C135" t="s">
+        <v>324</v>
+      </c>
+      <c r="D135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" t="s">
+        <v>236</v>
+      </c>
+      <c r="F135" t="s">
+        <v>443</v>
+      </c>
+      <c r="G135" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="2">
+        <v>43860</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>78</v>
+      </c>
+      <c r="F136" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>342</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C137" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" t="s">
+        <v>85</v>
+      </c>
+      <c r="E137" t="s">
+        <v>236</v>
+      </c>
+      <c r="F137" t="s">
+        <v>445</v>
+      </c>
+      <c r="G137" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>446</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43894</v>
+      </c>
+      <c r="C138" t="s">
+        <v>324</v>
+      </c>
+      <c r="D138" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" t="s">
+        <v>236</v>
+      </c>
+      <c r="F138" t="s">
+        <v>447</v>
+      </c>
+      <c r="G138" t="s">
+        <v>448</v>
+      </c>
+      <c r="H138" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>